--- a/DateBase/orders/Nha Thu_2025-7-28.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-28.xlsx
@@ -768,9 +768,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" xml:space="preserve">
       <c r="A41" t="str">
         <v>6</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-7-28.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-28.xlsx
@@ -776,6 +776,9 @@
         <v xml:space="preserve">373_龙柳_Salix
 _undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -837,7 +840,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030151510515552010101010105510618205758610101010101510588101710150</v>
+        <v>0301515105155520101010101055106182057586101010101015105881017101510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-7-28.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-28.xlsx
@@ -842,6 +842,9 @@
       <c r="G2" t="str">
         <v>0301515105155520101010101055106182057586101010101015105881017101510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
